--- a/Mr. Rawal Project.xlsx
+++ b/Mr. Rawal Project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="144">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -445,13 +445,16 @@
   </si>
   <si>
     <t xml:space="preserve">Aggregate </t>
+  </si>
+  <si>
+    <t>MR. Rawal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +484,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -540,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,9 +584,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1101,15 +1114,15 @@
       <c r="B1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="17" t="s">
@@ -3466,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3477,189 +3490,180 @@
     <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
+    <row r="1" spans="1:5" ht="55.8" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2">
-        <v>4.5</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <f>D3*B3</f>
-        <v>30000</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E22" si="0">D4*B4</f>
-        <v>9000</v>
+        <f>D4*B4</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E23" si="0">D5*B5</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>350</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>8750</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="E6">
+    <row r="7" spans="1:5">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>117</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>4.5</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1800</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>118</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>1200</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>119</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1400</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11">
-        <v>2.5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>350</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13">
-        <v>3000</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-    </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3677,251 +3681,251 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
       <c r="D15">
+        <v>3000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>4000</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>7000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>112</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>18300</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>18300</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>113</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>12000</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>114</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>20200</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>20200</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>115</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>14000</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24">
-        <v>200</v>
-      </c>
-      <c r="C24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24">
-        <v>65</v>
-      </c>
-      <c r="E24">
-        <f>D24*B24</f>
-        <v>13000</v>
-      </c>
-    </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D25">
         <v>65</v>
       </c>
       <c r="E25">
         <f>D25*B25</f>
-        <v>1300</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
       </c>
       <c r="D26">
-        <v>5000</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <f>D26*B26</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>5000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>57</v>
+      <c r="E27">
+        <f>D27*B27</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>125</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <f>15*380</f>
         <v>5700</v>
       </c>
-      <c r="E29">
-        <f>D29*B29</f>
+      <c r="E30">
+        <f>D30*B30</f>
         <v>17100</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>133</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33">
-        <v>3000</v>
-      </c>
-      <c r="E33">
-        <f>D33*B33</f>
-        <v>3000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E34">
         <f>D34*B34</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E35">
         <f>D35*B35</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>1500</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>128</v>
+      <c r="E36">
+        <f>D36*B36</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39">
-        <v>226</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39">
-        <v>25</v>
-      </c>
-      <c r="E39">
-        <f>D39*B39</f>
-        <v>5650</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B40">
         <v>226</v>
@@ -3930,19 +3934,19 @@
         <v>45</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <f>D40*B40</f>
-        <v>4520</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B41">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
@@ -3952,117 +3956,117 @@
       </c>
       <c r="E41">
         <f>D41*B41</f>
-        <v>6000</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42">
         <v>20</v>
-      </c>
-      <c r="D42">
-        <v>350</v>
       </c>
       <c r="E42">
         <f>D42*B42</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>350</v>
+      </c>
+      <c r="E43">
+        <f>D43*B43</f>
         <v>1750</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45">
-        <v>250</v>
-      </c>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45">
-        <v>120</v>
-      </c>
-      <c r="E45">
-        <f>D45*B45</f>
-        <v>30000</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B46">
         <v>250</v>
       </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
       <c r="D46">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E46">
         <f>D46*B46</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47">
+        <v>250</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <f>D47*B47</f>
         <v>7500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>350</v>
-      </c>
-      <c r="E50">
-        <f>D50*B50</f>
-        <v>4900</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B51">
-        <v>0.5</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>3000</v>
+        <v>350</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E53" si="1">D51*B51</f>
-        <v>1500</v>
+        <f>D51*B51</f>
+        <v>4900</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B52">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="C52" t="s">
         <v>101</v>
@@ -4071,35 +4075,57 @@
         <v>3000</v>
       </c>
       <c r="E52">
+        <f t="shared" ref="E52:E54" si="1">D52*B52</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53">
+        <v>2.5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53">
+        <v>3000</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>130</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>101</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>3000</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="E55">
-        <f>SUM(E2:E54)</f>
+    <row r="56" spans="1:5">
+      <c r="E56">
+        <f>SUM(E3:E55)</f>
         <v>272970</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>